--- a/team_results/tps/xlsx_tps_1_played_games_data.xlsx
+++ b/team_results/tps/xlsx_tps_1_played_games_data.xlsx
@@ -982,7 +982,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
         <v>117</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="n">
         <v>119</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>193</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>195</v>

--- a/team_results/tps/xlsx_tps_1_played_games_data.xlsx
+++ b/team_results/tps/xlsx_tps_1_played_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -914,7 +914,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
         <v>109</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="n">
         <v>114</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>117</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>119</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="n">
         <v>396</v>
@@ -2097,6 +2097,74 @@
         <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
+        <is>
+          <t>tps</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>404</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>tps</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>jyp</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>jyp</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B51" t="n">
+        <v>406</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>hpk</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>tps</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>tps</t>
         </is>
